--- a/Book1.xlsx
+++ b/Book1.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12300" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12300"/>
   </bookViews>
   <sheets>
     <sheet name="Portfolio" sheetId="2" r:id="rId1"/>
@@ -287,7 +287,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="37">
   <si>
     <t>Account Info</t>
   </si>
@@ -395,6 +395,9 @@
   </si>
   <si>
     <t>Mode</t>
+  </si>
+  <si>
+    <t>Total Exposure</t>
   </si>
 </sst>
 </file>
@@ -955,7 +958,7 @@
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="102">
+  <cellXfs count="105">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -1114,6 +1117,30 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="11" xfId="3" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1138,30 +1165,9 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="6">
     <cellStyle name="40% - Accent2" xfId="3" builtinId="35"/>
@@ -1218,6 +1224,841 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Exposure to Equity</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:solidFill>
+          <a:schemeClr val="bg1">
+            <a:lumMod val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:doughnutChart>
+        <c:varyColors val="1"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:dPt>
+            <c:idx val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="92D050"/>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000001-1A28-4BAE-BC6E-8DD09BD92C09}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="1"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000002-1A28-4BAE-BC6E-8DD09BD92C09}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:cat>
+            <c:strRef>
+              <c:f>(Portfolio!$A$5,Portfolio!$A$12)</c:f>
+              <c:strCache>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>Equity</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Total Exposure</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>(Portfolio!$B$5,Portfolio!$B$12)</c:f>
+              <c:numCache>
+                <c:formatCode>"$"#,##0.00</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>1030.51</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-1A28-4BAE-BC6E-8DD09BD92C09}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:showLeaderLines val="1"/>
+        </c:dLbls>
+        <c:firstSliceAng val="0"/>
+        <c:holeSize val="75"/>
+      </c:doughnutChart>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:noFill/>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="251">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050">
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="25400">
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>4762</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>228599</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Chart 2"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1486,15 +2327,15 @@
   <sheetPr>
     <tabColor theme="5" tint="0.39997558519241921"/>
   </sheetPr>
-  <dimension ref="A1:B11"/>
+  <dimension ref="A1:B12"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C14" sqref="C14"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="M26" sqref="M26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="12.140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="14" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="18.28515625" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1582,6 +2423,15 @@
       </c>
       <c r="B11" s="56">
         <f>B10/B9</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A12" s="54" t="s">
+        <v>36</v>
+      </c>
+      <c r="B12" s="57">
+        <f>SUM(Positions!H11:H30)</f>
         <v>0</v>
       </c>
     </row>
@@ -1595,6 +2445,7 @@
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -1605,8 +2456,8 @@
   </sheetPr>
   <dimension ref="D8:U32"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="P34" sqref="P34"/>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="H11" sqref="H11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1634,22 +2485,22 @@
   <sheetData>
     <row r="8" spans="4:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="9" spans="4:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="K9" s="94" t="s">
+      <c r="K9" s="86" t="s">
         <v>19</v>
       </c>
-      <c r="L9" s="95"/>
-      <c r="M9" s="96" t="s">
+      <c r="L9" s="87"/>
+      <c r="M9" s="88" t="s">
         <v>20</v>
       </c>
-      <c r="N9" s="97"/>
-      <c r="Q9" s="98" t="s">
+      <c r="N9" s="89"/>
+      <c r="Q9" s="90" t="s">
         <v>17</v>
       </c>
-      <c r="R9" s="99"/>
-      <c r="S9" s="100" t="s">
+      <c r="R9" s="91"/>
+      <c r="S9" s="92" t="s">
         <v>28</v>
       </c>
-      <c r="T9" s="101"/>
+      <c r="T9" s="93"/>
     </row>
     <row r="10" spans="4:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D10" s="12" t="s">
@@ -1712,7 +2563,7 @@
       <c r="E11" s="27"/>
       <c r="F11" s="28"/>
       <c r="G11" s="29"/>
-      <c r="H11" s="30"/>
+      <c r="H11" s="102"/>
       <c r="I11" s="30"/>
       <c r="J11" s="31"/>
       <c r="K11" s="48"/>
@@ -1732,7 +2583,7 @@
       <c r="E12" s="5"/>
       <c r="F12" s="3"/>
       <c r="G12" s="1"/>
-      <c r="H12" s="4"/>
+      <c r="H12" s="103"/>
       <c r="I12" s="4"/>
       <c r="J12" s="25"/>
       <c r="K12" s="49"/>
@@ -1752,7 +2603,7 @@
       <c r="E13" s="5"/>
       <c r="F13" s="3"/>
       <c r="G13" s="1"/>
-      <c r="H13" s="4"/>
+      <c r="H13" s="103"/>
       <c r="I13" s="4"/>
       <c r="J13" s="22"/>
       <c r="K13" s="49"/>
@@ -1772,7 +2623,7 @@
       <c r="E14" s="5"/>
       <c r="F14" s="3"/>
       <c r="G14" s="1"/>
-      <c r="H14" s="4"/>
+      <c r="H14" s="103"/>
       <c r="I14" s="4"/>
       <c r="J14" s="22"/>
       <c r="K14" s="49"/>
@@ -1792,7 +2643,7 @@
       <c r="E15" s="5"/>
       <c r="F15" s="3"/>
       <c r="G15" s="1"/>
-      <c r="H15" s="4"/>
+      <c r="H15" s="103"/>
       <c r="I15" s="4"/>
       <c r="J15" s="22"/>
       <c r="K15" s="49"/>
@@ -1812,7 +2663,7 @@
       <c r="E16" s="5"/>
       <c r="F16" s="3"/>
       <c r="G16" s="1"/>
-      <c r="H16" s="4"/>
+      <c r="H16" s="103"/>
       <c r="I16" s="4"/>
       <c r="J16" s="22"/>
       <c r="K16" s="49"/>
@@ -1832,7 +2683,7 @@
       <c r="E17" s="5"/>
       <c r="F17" s="3"/>
       <c r="G17" s="1"/>
-      <c r="H17" s="4"/>
+      <c r="H17" s="103"/>
       <c r="I17" s="4"/>
       <c r="J17" s="22"/>
       <c r="K17" s="49"/>
@@ -1852,7 +2703,7 @@
       <c r="E18" s="5"/>
       <c r="F18" s="3"/>
       <c r="G18" s="1"/>
-      <c r="H18" s="4"/>
+      <c r="H18" s="103"/>
       <c r="I18" s="4"/>
       <c r="J18" s="22"/>
       <c r="K18" s="49"/>
@@ -1872,7 +2723,7 @@
       <c r="E19" s="5"/>
       <c r="F19" s="3"/>
       <c r="G19" s="1"/>
-      <c r="H19" s="4"/>
+      <c r="H19" s="103"/>
       <c r="I19" s="4"/>
       <c r="J19" s="22"/>
       <c r="K19" s="49"/>
@@ -1892,7 +2743,7 @@
       <c r="E20" s="5"/>
       <c r="F20" s="3"/>
       <c r="G20" s="1"/>
-      <c r="H20" s="4"/>
+      <c r="H20" s="103"/>
       <c r="I20" s="4"/>
       <c r="J20" s="22"/>
       <c r="K20" s="49"/>
@@ -1912,7 +2763,7 @@
       <c r="E21" s="5"/>
       <c r="F21" s="3"/>
       <c r="G21" s="1"/>
-      <c r="H21" s="4"/>
+      <c r="H21" s="103"/>
       <c r="I21" s="4"/>
       <c r="J21" s="22"/>
       <c r="K21" s="49"/>
@@ -1932,7 +2783,7 @@
       <c r="E22" s="5"/>
       <c r="F22" s="3"/>
       <c r="G22" s="1"/>
-      <c r="H22" s="4"/>
+      <c r="H22" s="103"/>
       <c r="I22" s="4"/>
       <c r="J22" s="22"/>
       <c r="K22" s="49"/>
@@ -1952,7 +2803,7 @@
       <c r="E23" s="5"/>
       <c r="F23" s="3"/>
       <c r="G23" s="1"/>
-      <c r="H23" s="4"/>
+      <c r="H23" s="103"/>
       <c r="I23" s="4"/>
       <c r="J23" s="22"/>
       <c r="K23" s="49"/>
@@ -1972,7 +2823,7 @@
       <c r="E24" s="5"/>
       <c r="F24" s="3"/>
       <c r="G24" s="1"/>
-      <c r="H24" s="4"/>
+      <c r="H24" s="103"/>
       <c r="I24" s="4"/>
       <c r="J24" s="22"/>
       <c r="K24" s="49"/>
@@ -1992,7 +2843,7 @@
       <c r="E25" s="5"/>
       <c r="F25" s="3"/>
       <c r="G25" s="1"/>
-      <c r="H25" s="4"/>
+      <c r="H25" s="103"/>
       <c r="I25" s="4"/>
       <c r="J25" s="22"/>
       <c r="K25" s="49"/>
@@ -2012,7 +2863,7 @@
       <c r="E26" s="5"/>
       <c r="F26" s="3"/>
       <c r="G26" s="1"/>
-      <c r="H26" s="4"/>
+      <c r="H26" s="103"/>
       <c r="I26" s="4"/>
       <c r="J26" s="22"/>
       <c r="K26" s="49"/>
@@ -2032,7 +2883,7 @@
       <c r="E27" s="5"/>
       <c r="F27" s="3"/>
       <c r="G27" s="1"/>
-      <c r="H27" s="4"/>
+      <c r="H27" s="103"/>
       <c r="I27" s="4"/>
       <c r="J27" s="22"/>
       <c r="K27" s="49"/>
@@ -2052,7 +2903,7 @@
       <c r="E28" s="5"/>
       <c r="F28" s="3"/>
       <c r="G28" s="1"/>
-      <c r="H28" s="4"/>
+      <c r="H28" s="103"/>
       <c r="I28" s="4"/>
       <c r="J28" s="22"/>
       <c r="K28" s="49"/>
@@ -2072,7 +2923,7 @@
       <c r="E29" s="5"/>
       <c r="F29" s="3"/>
       <c r="G29" s="1"/>
-      <c r="H29" s="4"/>
+      <c r="H29" s="103"/>
       <c r="I29" s="4"/>
       <c r="J29" s="22"/>
       <c r="K29" s="49"/>
@@ -2092,7 +2943,7 @@
       <c r="E30" s="41"/>
       <c r="F30" s="42"/>
       <c r="G30" s="43"/>
-      <c r="H30" s="44"/>
+      <c r="H30" s="104"/>
       <c r="I30" s="44"/>
       <c r="J30" s="45"/>
       <c r="K30" s="50"/>
@@ -2212,22 +3063,22 @@
   <sheetData>
     <row r="8" spans="4:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="9" spans="4:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="J9" s="86" t="s">
+      <c r="J9" s="94" t="s">
         <v>19</v>
       </c>
-      <c r="K9" s="87"/>
-      <c r="L9" s="88" t="s">
+      <c r="K9" s="95"/>
+      <c r="L9" s="96" t="s">
         <v>20</v>
       </c>
-      <c r="M9" s="89"/>
-      <c r="N9" s="90" t="s">
+      <c r="M9" s="97"/>
+      <c r="N9" s="98" t="s">
         <v>21</v>
       </c>
-      <c r="O9" s="91"/>
-      <c r="P9" s="92" t="s">
+      <c r="O9" s="99"/>
+      <c r="P9" s="100" t="s">
         <v>22</v>
       </c>
-      <c r="Q9" s="93"/>
+      <c r="Q9" s="101"/>
     </row>
     <row r="10" spans="4:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D10" s="12" t="s">

--- a/Book1.xlsx
+++ b/Book1.xlsx
@@ -287,7 +287,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="45">
   <si>
     <t>Account Info</t>
   </si>
@@ -398,6 +398,30 @@
   </si>
   <si>
     <t>Total Exposure</t>
+  </si>
+  <si>
+    <t>Forex</t>
+  </si>
+  <si>
+    <t>Commodity</t>
+  </si>
+  <si>
+    <t>Index</t>
+  </si>
+  <si>
+    <t>Stocks</t>
+  </si>
+  <si>
+    <t>ETF</t>
+  </si>
+  <si>
+    <t>Bond Futures</t>
+  </si>
+  <si>
+    <t>Asset Class</t>
+  </si>
+  <si>
+    <t>Total Leverage</t>
   </si>
 </sst>
 </file>
@@ -958,7 +982,7 @@
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="105">
+  <cellXfs count="107">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -1111,6 +1135,9 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="29" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1165,9 +1192,8 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="6">
     <cellStyle name="40% - Accent2" xfId="3" builtinId="35"/>
@@ -1177,7 +1203,37 @@
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Percent" xfId="2" builtinId="5"/>
   </cellStyles>
-  <dxfs count="3">
+  <dxfs count="5">
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -1195,16 +1251,6 @@
       <fill>
         <patternFill>
           <bgColor theme="9" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
         </patternFill>
       </fill>
     </dxf>
@@ -1261,7 +1307,7 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="en-US"/>
-              <a:t>Exposure to Equity</a:t>
+              <a:t>Total Exposure to Equity</a:t>
             </a:r>
           </a:p>
         </c:rich>
@@ -1302,7 +1348,17 @@
     </c:title>
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
-      <c:layout/>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.17595470070883329"/>
+          <c:y val="0.1380308938010644"/>
+          <c:w val="0.63977026713177543"/>
+          <c:h val="0.72970277867861455"/>
+        </c:manualLayout>
+      </c:layout>
       <c:doughnutChart>
         <c:varyColors val="1"/>
         <c:ser>
@@ -1467,6 +1523,1943 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1800" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="dk1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Forex</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" baseline="0"/>
+              <a:t> Exposure</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1800" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.15757250656167979"/>
+          <c:y val="0.14076395450568679"/>
+          <c:w val="0.69303346456692916"/>
+          <c:h val="0.73923569553805779"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:doughnutChart>
+        <c:varyColors val="1"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:dPt>
+            <c:idx val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst>
+                <a:outerShdw blurRad="317500" algn="ctr" rotWithShape="0">
+                  <a:prstClr val="black">
+                    <a:alpha val="25000"/>
+                  </a:prstClr>
+                </a:outerShdw>
+              </a:effectLst>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000002-3922-4A9E-B397-DC1E1614A954}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="1"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent5"/>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst>
+                <a:outerShdw blurRad="317500" algn="ctr" rotWithShape="0">
+                  <a:prstClr val="black">
+                    <a:alpha val="25000"/>
+                  </a:prstClr>
+                </a:outerShdw>
+              </a:effectLst>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000001-3922-4A9E-B397-DC1E1614A954}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="lt1"/>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="0"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="1"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="1"/>
+            <c:leaderLines>
+              <c:spPr>
+                <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                  <a:solidFill>
+                    <a:schemeClr val="dk1">
+                      <a:lumMod val="35000"/>
+                      <a:lumOff val="65000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:round/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+            </c:leaderLines>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:layout/>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>(Portfolio!$A$5,Portfolio!$B$15)</c:f>
+              <c:strCache>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>Equity</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Exposure</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>(Portfolio!$B$5,Portfolio!$B$16)</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0" formatCode="&quot;$&quot;#,##0.00">
+                  <c:v>1030.51</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>5000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-3922-4A9E-B397-DC1E1614A954}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="1"/>
+          <c:showBubbleSize val="0"/>
+          <c:showLeaderLines val="1"/>
+        </c:dLbls>
+        <c:firstSliceAng val="0"/>
+        <c:holeSize val="70"/>
+      </c:doughnutChart>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.31698300870285956"/>
+          <c:y val="0.89409667541557303"/>
+          <c:w val="0.37841755848630376"/>
+          <c:h val="7.8125546806649168E-2"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:alpha val="78000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr rtl="0">
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:pattFill prst="dkDnDiag">
+      <a:fgClr>
+        <a:schemeClr val="lt1">
+          <a:lumMod val="95000"/>
+        </a:schemeClr>
+      </a:fgClr>
+      <a:bgClr>
+        <a:schemeClr val="lt1"/>
+      </a:bgClr>
+    </a:pattFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1800" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="dk1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Commodities Exposure</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1800" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.17194535465675487"/>
+          <c:y val="0.14159205099362579"/>
+          <c:w val="0.64362335142889737"/>
+          <c:h val="0.74016685414323202"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:doughnutChart>
+        <c:varyColors val="1"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:dPt>
+            <c:idx val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst>
+                <a:outerShdw blurRad="317500" algn="ctr" rotWithShape="0">
+                  <a:prstClr val="black">
+                    <a:alpha val="25000"/>
+                  </a:prstClr>
+                </a:outerShdw>
+              </a:effectLst>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="1"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent5"/>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst>
+                <a:outerShdw blurRad="317500" algn="ctr" rotWithShape="0">
+                  <a:prstClr val="black">
+                    <a:alpha val="25000"/>
+                  </a:prstClr>
+                </a:outerShdw>
+              </a:effectLst>
+            </c:spPr>
+          </c:dPt>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="lt1"/>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="0"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="1"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="1"/>
+            <c:leaderLines>
+              <c:spPr>
+                <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                  <a:solidFill>
+                    <a:schemeClr val="dk1">
+                      <a:lumMod val="35000"/>
+                      <a:lumOff val="65000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:round/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+            </c:leaderLines>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:layout/>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>(Portfolio!$A$5,Portfolio!$B$15)</c:f>
+              <c:strCache>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>Equity</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Exposure</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>(Portfolio!$B$5,Portfolio!$B$17)</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0" formatCode="&quot;$&quot;#,##0.00">
+                  <c:v>1030.51</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-1535-4911-9297-94E23D14D854}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="1"/>
+          <c:showBubbleSize val="0"/>
+          <c:showLeaderLines val="1"/>
+        </c:dLbls>
+        <c:firstSliceAng val="0"/>
+        <c:holeSize val="70"/>
+      </c:doughnutChart>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.32329922062494482"/>
+          <c:y val="0.89107086614173225"/>
+          <c:w val="0.34524629375456506"/>
+          <c:h val="8.0357705286839151E-2"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:alpha val="78000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr rtl="0">
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:pattFill prst="dkDnDiag">
+      <a:fgClr>
+        <a:schemeClr val="lt1">
+          <a:lumMod val="95000"/>
+        </a:schemeClr>
+      </a:fgClr>
+      <a:bgClr>
+        <a:schemeClr val="lt1"/>
+      </a:bgClr>
+    </a:pattFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1800" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="dk1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Index Futures Exposure</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1800" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.19005929814328765"/>
+          <c:y val="0.16063967004124485"/>
+          <c:w val="0.61165127507209738"/>
+          <c:h val="0.70776790401199841"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:doughnutChart>
+        <c:varyColors val="1"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:dPt>
+            <c:idx val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst>
+                <a:outerShdw blurRad="317500" algn="ctr" rotWithShape="0">
+                  <a:prstClr val="black">
+                    <a:alpha val="25000"/>
+                  </a:prstClr>
+                </a:outerShdw>
+              </a:effectLst>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="1"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent5"/>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst>
+                <a:outerShdw blurRad="317500" algn="ctr" rotWithShape="0">
+                  <a:prstClr val="black">
+                    <a:alpha val="25000"/>
+                  </a:prstClr>
+                </a:outerShdw>
+              </a:effectLst>
+            </c:spPr>
+          </c:dPt>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="lt1"/>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="0"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="1"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="1"/>
+            <c:leaderLines>
+              <c:spPr>
+                <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                  <a:solidFill>
+                    <a:schemeClr val="dk1">
+                      <a:lumMod val="35000"/>
+                      <a:lumOff val="65000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:round/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+            </c:leaderLines>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:layout/>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>(Portfolio!$A$5,Portfolio!$B$15)</c:f>
+              <c:strCache>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>Equity</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Exposure</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>(Portfolio!$B$5,Portfolio!$B$18)</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0" formatCode="&quot;$&quot;#,##0.00">
+                  <c:v>1030.51</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>500</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-BB3B-46DB-AEB1-29B97B2D5C74}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="1"/>
+          <c:showBubbleSize val="0"/>
+          <c:showLeaderLines val="1"/>
+        </c:dLbls>
+        <c:firstSliceAng val="0"/>
+        <c:holeSize val="70"/>
+      </c:doughnutChart>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:alpha val="78000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:pattFill prst="dkDnDiag">
+      <a:fgClr>
+        <a:schemeClr val="lt1">
+          <a:lumMod val="95000"/>
+        </a:schemeClr>
+      </a:fgClr>
+      <a:bgClr>
+        <a:schemeClr val="lt1"/>
+      </a:bgClr>
+    </a:pattFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1800" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="dk1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Stock</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" baseline="0"/>
+              <a:t> CFDs Exposure</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1800" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.19888370435177086"/>
+          <c:y val="0.16359644518119443"/>
+          <c:w val="0.61499983798321511"/>
+          <c:h val="0.69915771054933917"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:doughnutChart>
+        <c:varyColors val="1"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:dPt>
+            <c:idx val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst>
+                <a:outerShdw blurRad="317500" algn="ctr" rotWithShape="0">
+                  <a:prstClr val="black">
+                    <a:alpha val="25000"/>
+                  </a:prstClr>
+                </a:outerShdw>
+              </a:effectLst>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="1"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent5"/>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst>
+                <a:outerShdw blurRad="317500" algn="ctr" rotWithShape="0">
+                  <a:prstClr val="black">
+                    <a:alpha val="25000"/>
+                  </a:prstClr>
+                </a:outerShdw>
+              </a:effectLst>
+            </c:spPr>
+          </c:dPt>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="lt1"/>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="0"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="1"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="1"/>
+            <c:leaderLines>
+              <c:spPr>
+                <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                  <a:solidFill>
+                    <a:schemeClr val="dk1">
+                      <a:lumMod val="35000"/>
+                      <a:lumOff val="65000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:round/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+            </c:leaderLines>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:layout/>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>(Portfolio!$A$5,Portfolio!$B$15)</c:f>
+              <c:strCache>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>Equity</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Exposure</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>(Portfolio!$B$5,Portfolio!$B$19)</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0" formatCode="&quot;$&quot;#,##0.00">
+                  <c:v>1030.51</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>400</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-4F15-4EBA-8355-3380B5E8089A}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="1"/>
+          <c:showBubbleSize val="0"/>
+          <c:showLeaderLines val="1"/>
+        </c:dLbls>
+        <c:firstSliceAng val="0"/>
+        <c:holeSize val="70"/>
+      </c:doughnutChart>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:alpha val="78000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr rtl="0">
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:pattFill prst="dkDnDiag">
+      <a:fgClr>
+        <a:schemeClr val="lt1">
+          <a:lumMod val="95000"/>
+        </a:schemeClr>
+      </a:fgClr>
+      <a:bgClr>
+        <a:schemeClr val="lt1"/>
+      </a:bgClr>
+    </a:pattFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1800" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="dk1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>ETF Exposure</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1800" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.1721055428819061"/>
+          <c:y val="0.14402486147564889"/>
+          <c:w val="0.64332785504615653"/>
+          <c:h val="0.71704250510352863"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:doughnutChart>
+        <c:varyColors val="1"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:dPt>
+            <c:idx val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst>
+                <a:outerShdw blurRad="317500" algn="ctr" rotWithShape="0">
+                  <a:prstClr val="black">
+                    <a:alpha val="25000"/>
+                  </a:prstClr>
+                </a:outerShdw>
+              </a:effectLst>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="1"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent5"/>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst>
+                <a:outerShdw blurRad="317500" algn="ctr" rotWithShape="0">
+                  <a:prstClr val="black">
+                    <a:alpha val="25000"/>
+                  </a:prstClr>
+                </a:outerShdw>
+              </a:effectLst>
+            </c:spPr>
+          </c:dPt>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="lt1"/>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="0"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="1"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="1"/>
+            <c:leaderLines>
+              <c:spPr>
+                <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                  <a:solidFill>
+                    <a:schemeClr val="dk1">
+                      <a:lumMod val="35000"/>
+                      <a:lumOff val="65000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:round/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+            </c:leaderLines>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:layout/>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>(Portfolio!$A$5,Portfolio!$B$15)</c:f>
+              <c:strCache>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>Equity</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Exposure</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>(Portfolio!$B$5,Portfolio!$B$20)</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0" formatCode="&quot;$&quot;#,##0.00">
+                  <c:v>1030.51</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>500</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-DE64-45E8-8CDA-91A88218CD88}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="1"/>
+          <c:showBubbleSize val="0"/>
+          <c:showLeaderLines val="1"/>
+        </c:dLbls>
+        <c:firstSliceAng val="0"/>
+        <c:holeSize val="70"/>
+      </c:doughnutChart>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:alpha val="78000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr rtl="0">
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:pattFill prst="dkDnDiag">
+      <a:fgClr>
+        <a:schemeClr val="lt1">
+          <a:lumMod val="95000"/>
+        </a:schemeClr>
+      </a:fgClr>
+      <a:bgClr>
+        <a:schemeClr val="lt1"/>
+      </a:bgClr>
+    </a:pattFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart7.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1800" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="dk1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Soverign Bond Futures</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1800" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.13870455467514511"/>
+          <c:y val="0.13932482577608835"/>
+          <c:w val="0.72660092567293444"/>
+          <c:h val="0.72204543397592547"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:doughnutChart>
+        <c:varyColors val="1"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:dPt>
+            <c:idx val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst>
+                <a:outerShdw blurRad="317500" algn="ctr" rotWithShape="0">
+                  <a:prstClr val="black">
+                    <a:alpha val="25000"/>
+                  </a:prstClr>
+                </a:outerShdw>
+              </a:effectLst>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="1"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent5"/>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst>
+                <a:outerShdw blurRad="317500" algn="ctr" rotWithShape="0">
+                  <a:prstClr val="black">
+                    <a:alpha val="25000"/>
+                  </a:prstClr>
+                </a:outerShdw>
+              </a:effectLst>
+            </c:spPr>
+          </c:dPt>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="lt1"/>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="0"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="1"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="1"/>
+            <c:leaderLines>
+              <c:spPr>
+                <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                  <a:solidFill>
+                    <a:schemeClr val="dk1">
+                      <a:lumMod val="35000"/>
+                      <a:lumOff val="65000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:round/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+            </c:leaderLines>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:layout/>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>(Portfolio!$A$5,Portfolio!$B$15)</c:f>
+              <c:strCache>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>Equity</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Exposure</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>(Portfolio!$B$5,Portfolio!$B$21)</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0" formatCode="&quot;$&quot;#,##0.00">
+                  <c:v>1030.51</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>50000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-4259-4E67-844F-E237013ABA8E}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="1"/>
+          <c:showBubbleSize val="0"/>
+          <c:showLeaderLines val="1"/>
+        </c:dLbls>
+        <c:firstSliceAng val="0"/>
+        <c:holeSize val="70"/>
+      </c:doughnutChart>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.31012829917999379"/>
+          <c:y val="0.90766495651458201"/>
+          <c:w val="0.38573271401011783"/>
+          <c:h val="7.0533409029200508E-2"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:alpha val="78000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:pattFill prst="dkDnDiag">
+      <a:fgClr>
+        <a:schemeClr val="lt1">
+          <a:lumMod val="95000"/>
+        </a:schemeClr>
+      </a:fgClr>
+      <a:bgClr>
+        <a:schemeClr val="lt1"/>
+      </a:bgClr>
+    </a:pattFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
@@ -1507,6 +3500,228 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="13">
+  <a:schemeClr val="accent6"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent4"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="13">
+  <a:schemeClr val="accent6"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent4"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="13">
+  <a:schemeClr val="accent6"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent4"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors5.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="13">
+  <a:schemeClr val="accent6"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent4"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors6.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="13">
+  <a:schemeClr val="accent6"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent4"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors7.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="13">
+  <a:schemeClr val="accent6"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent4"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="251">
   <cs:axisTitle>
@@ -2022,6 +4237,3192 @@
         <a:noFill/>
       </a:ln>
     </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="261">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:pattFill prst="dkDnDiag">
+        <a:fgClr>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+          </a:schemeClr>
+        </a:fgClr>
+        <a:bgClr>
+          <a:schemeClr val="lt1"/>
+        </a:bgClr>
+      </a:pattFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1">
+          <a:alpha val="75000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:effectLst>
+        <a:outerShdw blurRad="317500" algn="ctr" rotWithShape="0">
+          <a:prstClr val="black">
+            <a:alpha val="25000"/>
+          </a:prstClr>
+        </a:outerShdw>
+      </a:effectLst>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:effectLst>
+        <a:outerShdw blurRad="88900" sx="102000" sy="102000" algn="ctr" rotWithShape="0">
+          <a:prstClr val="black">
+            <a:alpha val="20000"/>
+          </a:prstClr>
+        </a:outerShdw>
+      </a:effectLst>
+      <a:scene3d>
+        <a:camera prst="orthographicFront"/>
+        <a:lightRig rig="threePt" dir="t"/>
+      </a:scene3d>
+      <a:sp3d prstMaterial="matte"/>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="6"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1">
+          <a:alpha val="78000"/>
+        </a:schemeClr>
+      </a:solidFill>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1800" b="1" kern="1200" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="261">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:pattFill prst="dkDnDiag">
+        <a:fgClr>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+          </a:schemeClr>
+        </a:fgClr>
+        <a:bgClr>
+          <a:schemeClr val="lt1"/>
+        </a:bgClr>
+      </a:pattFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1">
+          <a:alpha val="75000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:effectLst>
+        <a:outerShdw blurRad="317500" algn="ctr" rotWithShape="0">
+          <a:prstClr val="black">
+            <a:alpha val="25000"/>
+          </a:prstClr>
+        </a:outerShdw>
+      </a:effectLst>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:effectLst>
+        <a:outerShdw blurRad="88900" sx="102000" sy="102000" algn="ctr" rotWithShape="0">
+          <a:prstClr val="black">
+            <a:alpha val="20000"/>
+          </a:prstClr>
+        </a:outerShdw>
+      </a:effectLst>
+      <a:scene3d>
+        <a:camera prst="orthographicFront"/>
+        <a:lightRig rig="threePt" dir="t"/>
+      </a:scene3d>
+      <a:sp3d prstMaterial="matte"/>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="6"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1">
+          <a:alpha val="78000"/>
+        </a:schemeClr>
+      </a:solidFill>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1800" b="1" kern="1200" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="261">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:pattFill prst="dkDnDiag">
+        <a:fgClr>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+          </a:schemeClr>
+        </a:fgClr>
+        <a:bgClr>
+          <a:schemeClr val="lt1"/>
+        </a:bgClr>
+      </a:pattFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1">
+          <a:alpha val="75000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:effectLst>
+        <a:outerShdw blurRad="317500" algn="ctr" rotWithShape="0">
+          <a:prstClr val="black">
+            <a:alpha val="25000"/>
+          </a:prstClr>
+        </a:outerShdw>
+      </a:effectLst>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:effectLst>
+        <a:outerShdw blurRad="88900" sx="102000" sy="102000" algn="ctr" rotWithShape="0">
+          <a:prstClr val="black">
+            <a:alpha val="20000"/>
+          </a:prstClr>
+        </a:outerShdw>
+      </a:effectLst>
+      <a:scene3d>
+        <a:camera prst="orthographicFront"/>
+        <a:lightRig rig="threePt" dir="t"/>
+      </a:scene3d>
+      <a:sp3d prstMaterial="matte"/>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="6"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1">
+          <a:alpha val="78000"/>
+        </a:schemeClr>
+      </a:solidFill>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1800" b="1" kern="1200" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style5.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="261">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:pattFill prst="dkDnDiag">
+        <a:fgClr>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+          </a:schemeClr>
+        </a:fgClr>
+        <a:bgClr>
+          <a:schemeClr val="lt1"/>
+        </a:bgClr>
+      </a:pattFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1">
+          <a:alpha val="75000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:effectLst>
+        <a:outerShdw blurRad="317500" algn="ctr" rotWithShape="0">
+          <a:prstClr val="black">
+            <a:alpha val="25000"/>
+          </a:prstClr>
+        </a:outerShdw>
+      </a:effectLst>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:effectLst>
+        <a:outerShdw blurRad="88900" sx="102000" sy="102000" algn="ctr" rotWithShape="0">
+          <a:prstClr val="black">
+            <a:alpha val="20000"/>
+          </a:prstClr>
+        </a:outerShdw>
+      </a:effectLst>
+      <a:scene3d>
+        <a:camera prst="orthographicFront"/>
+        <a:lightRig rig="threePt" dir="t"/>
+      </a:scene3d>
+      <a:sp3d prstMaterial="matte"/>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="6"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1">
+          <a:alpha val="78000"/>
+        </a:schemeClr>
+      </a:solidFill>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1800" b="1" kern="1200" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style6.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="261">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:pattFill prst="dkDnDiag">
+        <a:fgClr>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+          </a:schemeClr>
+        </a:fgClr>
+        <a:bgClr>
+          <a:schemeClr val="lt1"/>
+        </a:bgClr>
+      </a:pattFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1">
+          <a:alpha val="75000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:effectLst>
+        <a:outerShdw blurRad="317500" algn="ctr" rotWithShape="0">
+          <a:prstClr val="black">
+            <a:alpha val="25000"/>
+          </a:prstClr>
+        </a:outerShdw>
+      </a:effectLst>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:effectLst>
+        <a:outerShdw blurRad="88900" sx="102000" sy="102000" algn="ctr" rotWithShape="0">
+          <a:prstClr val="black">
+            <a:alpha val="20000"/>
+          </a:prstClr>
+        </a:outerShdw>
+      </a:effectLst>
+      <a:scene3d>
+        <a:camera prst="orthographicFront"/>
+        <a:lightRig rig="threePt" dir="t"/>
+      </a:scene3d>
+      <a:sp3d prstMaterial="matte"/>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="6"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1">
+          <a:alpha val="78000"/>
+        </a:schemeClr>
+      </a:solidFill>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1800" b="1" kern="1200" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style7.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="261">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:pattFill prst="dkDnDiag">
+        <a:fgClr>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+          </a:schemeClr>
+        </a:fgClr>
+        <a:bgClr>
+          <a:schemeClr val="lt1"/>
+        </a:bgClr>
+      </a:pattFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1">
+          <a:alpha val="75000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:effectLst>
+        <a:outerShdw blurRad="317500" algn="ctr" rotWithShape="0">
+          <a:prstClr val="black">
+            <a:alpha val="25000"/>
+          </a:prstClr>
+        </a:outerShdw>
+      </a:effectLst>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:effectLst>
+        <a:outerShdw blurRad="88900" sx="102000" sy="102000" algn="ctr" rotWithShape="0">
+          <a:prstClr val="black">
+            <a:alpha val="20000"/>
+          </a:prstClr>
+        </a:outerShdw>
+      </a:effectLst>
+      <a:scene3d>
+        <a:camera prst="orthographicFront"/>
+        <a:lightRig rig="threePt" dir="t"/>
+      </a:scene3d>
+      <a:sp3d prstMaterial="matte"/>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="6"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1">
+          <a:alpha val="78000"/>
+        </a:schemeClr>
+      </a:solidFill>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1800" b="1" kern="1200" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
   </cs:wall>
 </cs:chartStyle>
 </file>
@@ -2032,14 +7433,14 @@
     <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>4762</xdr:colOff>
-      <xdr:row>1</xdr:row>
+      <xdr:row>0</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
-      <xdr:colOff>228599</xdr:colOff>
-      <xdr:row>15</xdr:row>
-      <xdr:rowOff>9525</xdr:rowOff>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>9524</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -2053,6 +7454,186 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>1</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>1</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="5" name="Chart 4"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>9526</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>28576</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="6" name="Chart 5"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>19051</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>27</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="7" name="Chart 6"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId4"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>1</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="8" name="Chart 7"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId5"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>1</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>180974</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>1</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>19049</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="9" name="Chart 8"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId6"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>26</xdr:col>
+      <xdr:colOff>581025</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>180975</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="10" name="Chart 9"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId7"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -2327,25 +7908,26 @@
   <sheetPr>
     <tabColor theme="5" tint="0.39997558519241921"/>
   </sheetPr>
-  <dimension ref="A1:B12"/>
+  <dimension ref="A1:C21"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="M26" sqref="M26"/>
+      <selection activeCell="E19" sqref="E19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="14" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="18.28515625" customWidth="1"/>
+    <col min="3" max="3" width="10.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" s="84" t="s">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" s="87" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="85"/>
+      <c r="B1" s="88"/>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
@@ -2353,7 +7935,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>2</v>
       </c>
@@ -2361,7 +7943,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>35</v>
       </c>
@@ -2369,7 +7951,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>3</v>
       </c>
@@ -2377,7 +7959,7 @@
         <v>1030.51</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>4</v>
       </c>
@@ -2385,7 +7967,7 @@
         <v>1030.51</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>5</v>
       </c>
@@ -2393,7 +7975,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>6</v>
       </c>
@@ -2401,7 +7983,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>14</v>
       </c>
@@ -2409,7 +7991,7 @@
         <v>1030.51</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" s="54" t="s">
         <v>30</v>
       </c>
@@ -2417,7 +7999,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" s="54" t="s">
         <v>31</v>
       </c>
@@ -2426,7 +8008,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" s="54" t="s">
         <v>36</v>
       </c>
@@ -2435,17 +8017,115 @@
         <v>0</v>
       </c>
     </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A13" s="54" t="s">
+        <v>44</v>
+      </c>
+      <c r="B13" s="4">
+        <f>SUM(Positions!I11:I30)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A15" s="105" t="s">
+        <v>43</v>
+      </c>
+      <c r="B15" s="106" t="s">
+        <v>9</v>
+      </c>
+      <c r="C15" s="106" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A16" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="B16" s="1">
+        <v>5000</v>
+      </c>
+      <c r="C16" s="4">
+        <f>B16/$B$5</f>
+        <v>4.8519665020232701</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A17" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="B17" s="1">
+        <v>3000</v>
+      </c>
+      <c r="C17" s="4">
+        <f t="shared" ref="C17:C21" si="0">B17/$B$5</f>
+        <v>2.9111799012139619</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A18" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="B18" s="1">
+        <v>500</v>
+      </c>
+      <c r="C18" s="4">
+        <f t="shared" si="0"/>
+        <v>0.485196650202327</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A19" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="B19" s="1">
+        <v>400</v>
+      </c>
+      <c r="C19" s="4">
+        <f t="shared" si="0"/>
+        <v>0.38815732016186161</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A20" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="B20" s="1">
+        <v>500</v>
+      </c>
+      <c r="C20" s="4">
+        <f t="shared" si="0"/>
+        <v>0.485196650202327</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A21" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="B21" s="1">
+        <v>50000</v>
+      </c>
+      <c r="C21" s="4">
+        <f t="shared" si="0"/>
+        <v>48.519665020232701</v>
+      </c>
+    </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="A1:B1"/>
   </mergeCells>
   <conditionalFormatting sqref="B8">
-    <cfRule type="cellIs" dxfId="2" priority="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="2" priority="2" operator="lessThan">
       <formula>2</formula>
     </cfRule>
   </conditionalFormatting>
+  <conditionalFormatting sqref="B13">
+    <cfRule type="cellIs" dxfId="0" priority="1" operator="greaterThan">
+      <formula>30</formula>
+    </cfRule>
+  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -2457,7 +8137,7 @@
   <dimension ref="D8:U32"/>
   <sheetViews>
     <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="H11" sqref="H11"/>
+      <selection activeCell="I11" sqref="I11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2485,22 +8165,22 @@
   <sheetData>
     <row r="8" spans="4:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="9" spans="4:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="K9" s="86" t="s">
+      <c r="K9" s="89" t="s">
         <v>19</v>
       </c>
-      <c r="L9" s="87"/>
-      <c r="M9" s="88" t="s">
+      <c r="L9" s="90"/>
+      <c r="M9" s="91" t="s">
         <v>20</v>
       </c>
-      <c r="N9" s="89"/>
-      <c r="Q9" s="90" t="s">
+      <c r="N9" s="92"/>
+      <c r="Q9" s="93" t="s">
         <v>17</v>
       </c>
-      <c r="R9" s="91"/>
-      <c r="S9" s="92" t="s">
+      <c r="R9" s="94"/>
+      <c r="S9" s="95" t="s">
         <v>28</v>
       </c>
-      <c r="T9" s="93"/>
+      <c r="T9" s="96"/>
     </row>
     <row r="10" spans="4:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D10" s="12" t="s">
@@ -2563,7 +8243,7 @@
       <c r="E11" s="27"/>
       <c r="F11" s="28"/>
       <c r="G11" s="29"/>
-      <c r="H11" s="102"/>
+      <c r="H11" s="84"/>
       <c r="I11" s="30"/>
       <c r="J11" s="31"/>
       <c r="K11" s="48"/>
@@ -2583,7 +8263,7 @@
       <c r="E12" s="5"/>
       <c r="F12" s="3"/>
       <c r="G12" s="1"/>
-      <c r="H12" s="103"/>
+      <c r="H12" s="85"/>
       <c r="I12" s="4"/>
       <c r="J12" s="25"/>
       <c r="K12" s="49"/>
@@ -2603,7 +8283,7 @@
       <c r="E13" s="5"/>
       <c r="F13" s="3"/>
       <c r="G13" s="1"/>
-      <c r="H13" s="103"/>
+      <c r="H13" s="85"/>
       <c r="I13" s="4"/>
       <c r="J13" s="22"/>
       <c r="K13" s="49"/>
@@ -2623,7 +8303,7 @@
       <c r="E14" s="5"/>
       <c r="F14" s="3"/>
       <c r="G14" s="1"/>
-      <c r="H14" s="103"/>
+      <c r="H14" s="85"/>
       <c r="I14" s="4"/>
       <c r="J14" s="22"/>
       <c r="K14" s="49"/>
@@ -2643,7 +8323,7 @@
       <c r="E15" s="5"/>
       <c r="F15" s="3"/>
       <c r="G15" s="1"/>
-      <c r="H15" s="103"/>
+      <c r="H15" s="85"/>
       <c r="I15" s="4"/>
       <c r="J15" s="22"/>
       <c r="K15" s="49"/>
@@ -2663,7 +8343,7 @@
       <c r="E16" s="5"/>
       <c r="F16" s="3"/>
       <c r="G16" s="1"/>
-      <c r="H16" s="103"/>
+      <c r="H16" s="85"/>
       <c r="I16" s="4"/>
       <c r="J16" s="22"/>
       <c r="K16" s="49"/>
@@ -2683,7 +8363,7 @@
       <c r="E17" s="5"/>
       <c r="F17" s="3"/>
       <c r="G17" s="1"/>
-      <c r="H17" s="103"/>
+      <c r="H17" s="85"/>
       <c r="I17" s="4"/>
       <c r="J17" s="22"/>
       <c r="K17" s="49"/>
@@ -2703,7 +8383,7 @@
       <c r="E18" s="5"/>
       <c r="F18" s="3"/>
       <c r="G18" s="1"/>
-      <c r="H18" s="103"/>
+      <c r="H18" s="85"/>
       <c r="I18" s="4"/>
       <c r="J18" s="22"/>
       <c r="K18" s="49"/>
@@ -2723,7 +8403,7 @@
       <c r="E19" s="5"/>
       <c r="F19" s="3"/>
       <c r="G19" s="1"/>
-      <c r="H19" s="103"/>
+      <c r="H19" s="85"/>
       <c r="I19" s="4"/>
       <c r="J19" s="22"/>
       <c r="K19" s="49"/>
@@ -2743,7 +8423,7 @@
       <c r="E20" s="5"/>
       <c r="F20" s="3"/>
       <c r="G20" s="1"/>
-      <c r="H20" s="103"/>
+      <c r="H20" s="85"/>
       <c r="I20" s="4"/>
       <c r="J20" s="22"/>
       <c r="K20" s="49"/>
@@ -2763,7 +8443,7 @@
       <c r="E21" s="5"/>
       <c r="F21" s="3"/>
       <c r="G21" s="1"/>
-      <c r="H21" s="103"/>
+      <c r="H21" s="85"/>
       <c r="I21" s="4"/>
       <c r="J21" s="22"/>
       <c r="K21" s="49"/>
@@ -2783,7 +8463,7 @@
       <c r="E22" s="5"/>
       <c r="F22" s="3"/>
       <c r="G22" s="1"/>
-      <c r="H22" s="103"/>
+      <c r="H22" s="85"/>
       <c r="I22" s="4"/>
       <c r="J22" s="22"/>
       <c r="K22" s="49"/>
@@ -2803,7 +8483,7 @@
       <c r="E23" s="5"/>
       <c r="F23" s="3"/>
       <c r="G23" s="1"/>
-      <c r="H23" s="103"/>
+      <c r="H23" s="85"/>
       <c r="I23" s="4"/>
       <c r="J23" s="22"/>
       <c r="K23" s="49"/>
@@ -2823,7 +8503,7 @@
       <c r="E24" s="5"/>
       <c r="F24" s="3"/>
       <c r="G24" s="1"/>
-      <c r="H24" s="103"/>
+      <c r="H24" s="85"/>
       <c r="I24" s="4"/>
       <c r="J24" s="22"/>
       <c r="K24" s="49"/>
@@ -2843,7 +8523,7 @@
       <c r="E25" s="5"/>
       <c r="F25" s="3"/>
       <c r="G25" s="1"/>
-      <c r="H25" s="103"/>
+      <c r="H25" s="85"/>
       <c r="I25" s="4"/>
       <c r="J25" s="22"/>
       <c r="K25" s="49"/>
@@ -2863,7 +8543,7 @@
       <c r="E26" s="5"/>
       <c r="F26" s="3"/>
       <c r="G26" s="1"/>
-      <c r="H26" s="103"/>
+      <c r="H26" s="85"/>
       <c r="I26" s="4"/>
       <c r="J26" s="22"/>
       <c r="K26" s="49"/>
@@ -2883,7 +8563,7 @@
       <c r="E27" s="5"/>
       <c r="F27" s="3"/>
       <c r="G27" s="1"/>
-      <c r="H27" s="103"/>
+      <c r="H27" s="85"/>
       <c r="I27" s="4"/>
       <c r="J27" s="22"/>
       <c r="K27" s="49"/>
@@ -2903,7 +8583,7 @@
       <c r="E28" s="5"/>
       <c r="F28" s="3"/>
       <c r="G28" s="1"/>
-      <c r="H28" s="103"/>
+      <c r="H28" s="85"/>
       <c r="I28" s="4"/>
       <c r="J28" s="22"/>
       <c r="K28" s="49"/>
@@ -2923,7 +8603,7 @@
       <c r="E29" s="5"/>
       <c r="F29" s="3"/>
       <c r="G29" s="1"/>
-      <c r="H29" s="103"/>
+      <c r="H29" s="85"/>
       <c r="I29" s="4"/>
       <c r="J29" s="22"/>
       <c r="K29" s="49"/>
@@ -2943,7 +8623,7 @@
       <c r="E30" s="41"/>
       <c r="F30" s="42"/>
       <c r="G30" s="43"/>
-      <c r="H30" s="104"/>
+      <c r="H30" s="86"/>
       <c r="I30" s="44"/>
       <c r="J30" s="45"/>
       <c r="K30" s="50"/>
@@ -2972,10 +8652,10 @@
     <mergeCell ref="S9:T9"/>
   </mergeCells>
   <conditionalFormatting sqref="O11:O30">
-    <cfRule type="containsText" dxfId="1" priority="1" operator="containsText" text="Profitable">
+    <cfRule type="containsText" dxfId="4" priority="1" operator="containsText" text="Profitable">
       <formula>NOT(ISERROR(SEARCH("Profitable",O11)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="0" priority="6" operator="containsText" text="Losing">
+    <cfRule type="containsText" dxfId="3" priority="6" operator="containsText" text="Losing">
       <formula>NOT(ISERROR(SEARCH("Losing",O11)))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -3063,22 +8743,22 @@
   <sheetData>
     <row r="8" spans="4:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="9" spans="4:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="J9" s="94" t="s">
+      <c r="J9" s="97" t="s">
         <v>19</v>
       </c>
-      <c r="K9" s="95"/>
-      <c r="L9" s="96" t="s">
+      <c r="K9" s="98"/>
+      <c r="L9" s="99" t="s">
         <v>20</v>
       </c>
-      <c r="M9" s="97"/>
-      <c r="N9" s="98" t="s">
+      <c r="M9" s="100"/>
+      <c r="N9" s="101" t="s">
         <v>21</v>
       </c>
-      <c r="O9" s="99"/>
-      <c r="P9" s="100" t="s">
+      <c r="O9" s="102"/>
+      <c r="P9" s="103" t="s">
         <v>22</v>
       </c>
-      <c r="Q9" s="101"/>
+      <c r="Q9" s="104"/>
     </row>
     <row r="10" spans="4:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D10" s="12" t="s">

--- a/Book1.xlsx
+++ b/Book1.xlsx
@@ -287,7 +287,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="57">
   <si>
     <t>Account Info</t>
   </si>
@@ -385,12 +385,6 @@
     <t>Total P/L %</t>
   </si>
   <si>
-    <t>Kiran Sawant</t>
-  </si>
-  <si>
-    <t>MetaQuotes-Demo</t>
-  </si>
-  <si>
     <t>Demo</t>
   </si>
   <si>
@@ -422,6 +416,48 @@
   </si>
   <si>
     <t>Total Leverage</t>
+  </si>
+  <si>
+    <t>Sawant Kiran</t>
+  </si>
+  <si>
+    <t>ICMarkets-Demo</t>
+  </si>
+  <si>
+    <t>Net Short</t>
+  </si>
+  <si>
+    <t>USDZAR</t>
+  </si>
+  <si>
+    <t>Losing</t>
+  </si>
+  <si>
+    <t>GE.NYSE</t>
+  </si>
+  <si>
+    <t>Profitable</t>
+  </si>
+  <si>
+    <t>Net Long</t>
+  </si>
+  <si>
+    <t>VIX_M0</t>
+  </si>
+  <si>
+    <t>NOKSEK</t>
+  </si>
+  <si>
+    <t>Short</t>
+  </si>
+  <si>
+    <t>GTC</t>
+  </si>
+  <si>
+    <t>i Dunno</t>
+  </si>
+  <si>
+    <t>Exposure USD</t>
   </si>
 </sst>
 </file>
@@ -1117,7 +1153,6 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="30" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="167" fontId="0" fillId="0" borderId="31" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="166" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="167" fontId="0" fillId="0" borderId="8" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
@@ -1138,6 +1173,9 @@
     <xf numFmtId="164" fontId="0" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1192,8 +1230,6 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="6">
     <cellStyle name="40% - Accent2" xfId="3" builtinId="35"/>
@@ -1203,7 +1239,7 @@
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Percent" xfId="2" builtinId="5"/>
   </cellStyles>
-  <dxfs count="5">
+  <dxfs count="4">
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -1211,6 +1247,16 @@
       <fill>
         <patternFill>
           <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.39994506668294322"/>
         </patternFill>
       </fill>
     </dxf>
@@ -1231,26 +1277,6 @@
       <fill>
         <patternFill>
           <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.39994506668294322"/>
         </patternFill>
       </fill>
     </dxf>
@@ -1425,10 +1451,10 @@
                 <c:formatCode>"$"#,##0.00</c:formatCode>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
-                  <c:v>1030.51</c:v>
+                  <c:v>899.13</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0</c:v>
+                  <c:v>198.90697285882285</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1727,7 +1753,7 @@
                   <c:v>Equity</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>Exposure</c:v>
+                  <c:v>Exposure USD</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1736,13 +1762,13 @@
             <c:numRef>
               <c:f>(Portfolio!$B$5,Portfolio!$B$16)</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
+                <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="2"/>
                 <c:pt idx="0" formatCode="&quot;$&quot;#,##0.00">
-                  <c:v>1030.51</c:v>
+                  <c:v>899.13</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>5000</c:v>
+                  <c:v>101.14697285882283</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1968,6 +1994,11 @@
                 </a:outerShdw>
               </a:effectLst>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000001-0FD4-406E-BB82-CF5E7020859C}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="1"/>
@@ -1987,6 +2018,11 @@
                 </a:outerShdw>
               </a:effectLst>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000003-0FD4-406E-BB82-CF5E7020859C}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dLbls>
             <c:spPr>
@@ -2051,7 +2087,7 @@
                   <c:v>Equity</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>Exposure</c:v>
+                  <c:v>Exposure USD</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -2063,10 +2099,10 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="2"/>
                 <c:pt idx="0" formatCode="&quot;$&quot;#,##0.00">
-                  <c:v>1030.51</c:v>
+                  <c:v>899.13</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>3000</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2292,6 +2328,11 @@
                 </a:outerShdw>
               </a:effectLst>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000001-C78B-4C94-A8A4-8741A3EC0AB9}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="1"/>
@@ -2311,6 +2352,11 @@
                 </a:outerShdw>
               </a:effectLst>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000003-C78B-4C94-A8A4-8741A3EC0AB9}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dLbls>
             <c:spPr>
@@ -2375,7 +2421,7 @@
                   <c:v>Equity</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>Exposure</c:v>
+                  <c:v>Exposure USD</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -2387,10 +2433,10 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="2"/>
                 <c:pt idx="0" formatCode="&quot;$&quot;#,##0.00">
-                  <c:v>1030.51</c:v>
+                  <c:v>899.13</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>500</c:v>
+                  <c:v>29.36</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2612,6 +2658,11 @@
                 </a:outerShdw>
               </a:effectLst>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000001-1F48-497E-896E-29EE46A1AB40}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="1"/>
@@ -2631,6 +2682,11 @@
                 </a:outerShdw>
               </a:effectLst>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000003-1F48-497E-896E-29EE46A1AB40}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dLbls>
             <c:spPr>
@@ -2695,7 +2751,7 @@
                   <c:v>Equity</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>Exposure</c:v>
+                  <c:v>Exposure USD</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -2707,10 +2763,10 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="2"/>
                 <c:pt idx="0" formatCode="&quot;$&quot;#,##0.00">
-                  <c:v>1030.51</c:v>
+                  <c:v>899.13</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>400</c:v>
+                  <c:v>68.400000000000006</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2927,6 +2983,11 @@
                 </a:outerShdw>
               </a:effectLst>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000001-3E4E-40D6-8366-7BA88407645D}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="1"/>
@@ -2946,6 +3007,11 @@
                 </a:outerShdw>
               </a:effectLst>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000003-3E4E-40D6-8366-7BA88407645D}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dLbls>
             <c:spPr>
@@ -3010,7 +3076,7 @@
                   <c:v>Equity</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>Exposure</c:v>
+                  <c:v>Exposure USD</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -3022,10 +3088,10 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="2"/>
                 <c:pt idx="0" formatCode="&quot;$&quot;#,##0.00">
-                  <c:v>1030.51</c:v>
+                  <c:v>899.13</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>500</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3171,7 +3237,7 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="en-US"/>
-              <a:t>Soverign Bond Futures</a:t>
+              <a:t>Sovereign Bond Futures</a:t>
             </a:r>
           </a:p>
         </c:rich>
@@ -3242,6 +3308,11 @@
                 </a:outerShdw>
               </a:effectLst>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000001-158D-4611-B79D-4ACF44574CCA}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="1"/>
@@ -3261,6 +3332,11 @@
                 </a:outerShdw>
               </a:effectLst>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000003-158D-4611-B79D-4ACF44574CCA}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dLbls>
             <c:spPr>
@@ -3325,7 +3401,7 @@
                   <c:v>Equity</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>Exposure</c:v>
+                  <c:v>Exposure USD</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -3337,10 +3413,10 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="2"/>
                 <c:pt idx="0" formatCode="&quot;$&quot;#,##0.00">
-                  <c:v>1030.51</c:v>
+                  <c:v>899.13</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>50000</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7910,8 +7986,8 @@
   </sheetPr>
   <dimension ref="A1:C21"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="E19" sqref="E19"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="AB18" sqref="AB18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7922,17 +7998,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1" s="87" t="s">
+      <c r="A1" s="89" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="88"/>
+      <c r="B1" s="90"/>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
       <c r="B2" s="7" t="s">
-        <v>32</v>
+        <v>43</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
@@ -7940,15 +8016,15 @@
         <v>2</v>
       </c>
       <c r="B3" s="7" t="s">
-        <v>33</v>
+        <v>44</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="B4" s="7" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
@@ -7956,7 +8032,7 @@
         <v>3</v>
       </c>
       <c r="B5" s="57">
-        <v>1030.51</v>
+        <v>899.13</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
@@ -7964,7 +8040,7 @@
         <v>4</v>
       </c>
       <c r="B6" s="57">
-        <v>1030.51</v>
+        <v>894.41</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
@@ -7972,7 +8048,7 @@
         <v>5</v>
       </c>
       <c r="B7" s="57">
-        <v>0</v>
+        <v>4.72</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
@@ -7980,7 +8056,7 @@
         <v>6</v>
       </c>
       <c r="B8" s="55">
-        <v>0</v>
+        <v>190.49359999999999</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
@@ -7988,7 +8064,7 @@
         <v>14</v>
       </c>
       <c r="B9" s="57">
-        <v>1030.51</v>
+        <v>903.42</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
@@ -7996,7 +8072,7 @@
         <v>30</v>
       </c>
       <c r="B10" s="57">
-        <v>0</v>
+        <v>-4.29</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
@@ -8005,108 +8081,108 @@
       </c>
       <c r="B11" s="56">
         <f>B10/B9</f>
-        <v>0</v>
+        <v>-4.7486219034336193E-3</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" s="54" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="B12" s="57">
         <f>SUM(Positions!H11:H30)</f>
-        <v>0</v>
+        <v>198.90697285882285</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" s="54" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="B13" s="4">
         <f>SUM(Positions!I11:I30)</f>
-        <v>0</v>
+        <v>0.22122159516290507</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A15" s="105" t="s">
-        <v>43</v>
-      </c>
-      <c r="B15" s="106" t="s">
-        <v>9</v>
-      </c>
-      <c r="C15" s="106" t="s">
+      <c r="A15" s="86" t="s">
+        <v>41</v>
+      </c>
+      <c r="B15" s="87" t="s">
+        <v>56</v>
+      </c>
+      <c r="C15" s="87" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="B16" s="1">
-        <v>5000</v>
+        <v>35</v>
+      </c>
+      <c r="B16" s="4">
+        <v>101.14697285882283</v>
       </c>
       <c r="C16" s="4">
         <f>B16/$B$5</f>
-        <v>4.8519665020232701</v>
+        <v>0.11249426985955628</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B17" s="1">
-        <v>3000</v>
+        <v>0</v>
       </c>
       <c r="C17" s="4">
         <f t="shared" ref="C17:C21" si="0">B17/$B$5</f>
-        <v>2.9111799012139619</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="B18" s="1">
-        <v>500</v>
+        <v>29.36</v>
       </c>
       <c r="C18" s="4">
         <f t="shared" si="0"/>
-        <v>0.485196650202327</v>
+        <v>3.2653787550187406E-2</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="B19" s="1">
-        <v>400</v>
+        <v>68.400000000000006</v>
       </c>
       <c r="C19" s="4">
         <f t="shared" si="0"/>
-        <v>0.38815732016186161</v>
+        <v>7.6073537753161391E-2</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B20" s="1">
-        <v>500</v>
+        <v>0</v>
       </c>
       <c r="C20" s="4">
         <f t="shared" si="0"/>
-        <v>0.485196650202327</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="B21" s="1">
-        <v>50000</v>
+        <v>0</v>
       </c>
       <c r="C21" s="4">
         <f t="shared" si="0"/>
-        <v>48.519665020232701</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -8114,12 +8190,12 @@
     <mergeCell ref="A1:B1"/>
   </mergeCells>
   <conditionalFormatting sqref="B8">
-    <cfRule type="cellIs" dxfId="2" priority="2" operator="lessThan">
+    <cfRule type="cellIs" dxfId="3" priority="2" operator="lessThan">
       <formula>2</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B13">
-    <cfRule type="cellIs" dxfId="0" priority="1" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="2" priority="1" operator="greaterThan">
       <formula>30</formula>
     </cfRule>
   </conditionalFormatting>
@@ -8137,7 +8213,7 @@
   <dimension ref="D8:U32"/>
   <sheetViews>
     <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="I11" sqref="I11"/>
+      <selection activeCell="P31" sqref="P31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8165,22 +8241,22 @@
   <sheetData>
     <row r="8" spans="4:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="9" spans="4:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="K9" s="89" t="s">
+      <c r="K9" s="91" t="s">
         <v>19</v>
       </c>
-      <c r="L9" s="90"/>
-      <c r="M9" s="91" t="s">
+      <c r="L9" s="92"/>
+      <c r="M9" s="93" t="s">
         <v>20</v>
       </c>
-      <c r="N9" s="92"/>
-      <c r="Q9" s="93" t="s">
+      <c r="N9" s="94"/>
+      <c r="Q9" s="95" t="s">
         <v>17</v>
       </c>
-      <c r="R9" s="94"/>
-      <c r="S9" s="95" t="s">
+      <c r="R9" s="96"/>
+      <c r="S9" s="97" t="s">
         <v>28</v>
       </c>
-      <c r="T9" s="96"/>
+      <c r="T9" s="98"/>
     </row>
     <row r="10" spans="4:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D10" s="12" t="s">
@@ -8239,71 +8315,179 @@
       </c>
     </row>
     <row r="11" spans="4:21" x14ac:dyDescent="0.25">
-      <c r="D11" s="26"/>
-      <c r="E11" s="27"/>
-      <c r="F11" s="28"/>
-      <c r="G11" s="29"/>
-      <c r="H11" s="84"/>
-      <c r="I11" s="30"/>
-      <c r="J11" s="31"/>
-      <c r="K11" s="48"/>
-      <c r="L11" s="33"/>
-      <c r="M11" s="32"/>
-      <c r="N11" s="34"/>
-      <c r="O11" s="35"/>
-      <c r="P11" s="51"/>
-      <c r="Q11" s="48"/>
-      <c r="R11" s="34"/>
-      <c r="S11" s="36"/>
-      <c r="T11" s="34"/>
-      <c r="U11" s="37"/>
+      <c r="D11" s="26" t="s">
+        <v>50</v>
+      </c>
+      <c r="E11" s="27" t="s">
+        <v>51</v>
+      </c>
+      <c r="F11" s="28">
+        <v>29.36</v>
+      </c>
+      <c r="G11" s="29">
+        <v>1</v>
+      </c>
+      <c r="H11" s="83">
+        <v>29.36</v>
+      </c>
+      <c r="I11" s="30">
+        <v>3.2653787550187406E-2</v>
+      </c>
+      <c r="J11" s="31">
+        <v>29.4</v>
+      </c>
+      <c r="K11" s="48">
+        <v>899.13</v>
+      </c>
+      <c r="L11" s="33">
+        <v>1</v>
+      </c>
+      <c r="M11" s="32">
+        <v>899.13</v>
+      </c>
+      <c r="N11" s="34">
+        <v>1</v>
+      </c>
+      <c r="O11" s="35" t="s">
+        <v>49</v>
+      </c>
+      <c r="P11" s="51">
+        <v>1.3623978201634586E-3</v>
+      </c>
+      <c r="Q11" s="48">
+        <v>0</v>
+      </c>
+      <c r="R11" s="34">
+        <v>0</v>
+      </c>
+      <c r="S11" s="36">
+        <v>0.04</v>
+      </c>
+      <c r="T11" s="34">
+        <v>4.4276194903809971E-5</v>
+      </c>
+      <c r="U11" s="37">
+        <v>1</v>
+      </c>
     </row>
     <row r="12" spans="4:21" x14ac:dyDescent="0.25">
-      <c r="D12" s="38"/>
-      <c r="E12" s="5"/>
-      <c r="F12" s="3"/>
-      <c r="G12" s="1"/>
-      <c r="H12" s="85"/>
-      <c r="I12" s="4"/>
-      <c r="J12" s="25"/>
-      <c r="K12" s="49"/>
-      <c r="L12" s="23"/>
-      <c r="M12" s="8"/>
-      <c r="N12" s="9"/>
-      <c r="O12" s="6"/>
-      <c r="P12" s="52"/>
-      <c r="Q12" s="49"/>
-      <c r="R12" s="9"/>
-      <c r="S12" s="18"/>
-      <c r="T12" s="9"/>
-      <c r="U12" s="39"/>
+      <c r="D12" s="38" t="s">
+        <v>50</v>
+      </c>
+      <c r="E12" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="F12" s="3">
+        <v>0.97277999999999998</v>
+      </c>
+      <c r="G12" s="1">
+        <v>1000</v>
+      </c>
+      <c r="H12" s="84">
+        <v>101.14697285882283</v>
+      </c>
+      <c r="I12" s="4">
+        <v>0.11249426985955628</v>
+      </c>
+      <c r="J12" s="25">
+        <v>0.97450000000000003</v>
+      </c>
+      <c r="K12" s="49">
+        <v>899.13</v>
+      </c>
+      <c r="L12" s="23">
+        <v>1</v>
+      </c>
+      <c r="M12" s="8">
+        <v>899.13</v>
+      </c>
+      <c r="N12" s="9">
+        <v>1</v>
+      </c>
+      <c r="O12" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="P12" s="52">
+        <v>1.7681284565883909E-3</v>
+      </c>
+      <c r="Q12" s="49">
+        <v>0</v>
+      </c>
+      <c r="R12" s="9">
+        <v>0</v>
+      </c>
+      <c r="S12" s="18">
+        <v>0.18</v>
+      </c>
+      <c r="T12" s="9">
+        <v>1.9924287706714485E-4</v>
+      </c>
+      <c r="U12" s="39">
+        <v>1</v>
+      </c>
     </row>
     <row r="13" spans="4:21" x14ac:dyDescent="0.25">
-      <c r="D13" s="38"/>
-      <c r="E13" s="5"/>
-      <c r="F13" s="3"/>
-      <c r="G13" s="1"/>
-      <c r="H13" s="85"/>
-      <c r="I13" s="4"/>
-      <c r="J13" s="22"/>
-      <c r="K13" s="49"/>
-      <c r="L13" s="23"/>
-      <c r="M13" s="8"/>
-      <c r="N13" s="9"/>
-      <c r="O13" s="6"/>
-      <c r="P13" s="52"/>
-      <c r="Q13" s="49"/>
-      <c r="R13" s="9"/>
-      <c r="S13" s="18"/>
-      <c r="T13" s="9"/>
-      <c r="U13" s="39"/>
+      <c r="D13" s="38" t="s">
+        <v>45</v>
+      </c>
+      <c r="E13" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="F13" s="3">
+        <v>6.84</v>
+      </c>
+      <c r="G13" s="1">
+        <v>10</v>
+      </c>
+      <c r="H13" s="84">
+        <v>68.400000000000006</v>
+      </c>
+      <c r="I13" s="4">
+        <v>7.6073537753161391E-2</v>
+      </c>
+      <c r="J13" s="22">
+        <v>7.29</v>
+      </c>
+      <c r="K13" s="49">
+        <v>899.13</v>
+      </c>
+      <c r="L13" s="23">
+        <v>1</v>
+      </c>
+      <c r="M13" s="88">
+        <v>14</v>
+      </c>
+      <c r="N13" s="9">
+        <v>1.5570607142459933E-2</v>
+      </c>
+      <c r="O13" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="P13" s="52">
+        <v>6.578947368421055E-2</v>
+      </c>
+      <c r="Q13" s="49">
+        <v>-0.01</v>
+      </c>
+      <c r="R13" s="9">
+        <v>-7.1428571428571429E-4</v>
+      </c>
+      <c r="S13" s="18">
+        <v>-4.5</v>
+      </c>
+      <c r="T13" s="9">
+        <v>-4.9810719266786211E-3</v>
+      </c>
+      <c r="U13" s="39">
+        <v>1</v>
+      </c>
     </row>
     <row r="14" spans="4:21" x14ac:dyDescent="0.25">
       <c r="D14" s="38"/>
       <c r="E14" s="5"/>
       <c r="F14" s="3"/>
       <c r="G14" s="1"/>
-      <c r="H14" s="85"/>
+      <c r="H14" s="84"/>
       <c r="I14" s="4"/>
       <c r="J14" s="22"/>
       <c r="K14" s="49"/>
@@ -8323,7 +8507,7 @@
       <c r="E15" s="5"/>
       <c r="F15" s="3"/>
       <c r="G15" s="1"/>
-      <c r="H15" s="85"/>
+      <c r="H15" s="84"/>
       <c r="I15" s="4"/>
       <c r="J15" s="22"/>
       <c r="K15" s="49"/>
@@ -8343,7 +8527,7 @@
       <c r="E16" s="5"/>
       <c r="F16" s="3"/>
       <c r="G16" s="1"/>
-      <c r="H16" s="85"/>
+      <c r="H16" s="84"/>
       <c r="I16" s="4"/>
       <c r="J16" s="22"/>
       <c r="K16" s="49"/>
@@ -8363,7 +8547,7 @@
       <c r="E17" s="5"/>
       <c r="F17" s="3"/>
       <c r="G17" s="1"/>
-      <c r="H17" s="85"/>
+      <c r="H17" s="84"/>
       <c r="I17" s="4"/>
       <c r="J17" s="22"/>
       <c r="K17" s="49"/>
@@ -8383,7 +8567,7 @@
       <c r="E18" s="5"/>
       <c r="F18" s="3"/>
       <c r="G18" s="1"/>
-      <c r="H18" s="85"/>
+      <c r="H18" s="84"/>
       <c r="I18" s="4"/>
       <c r="J18" s="22"/>
       <c r="K18" s="49"/>
@@ -8403,7 +8587,7 @@
       <c r="E19" s="5"/>
       <c r="F19" s="3"/>
       <c r="G19" s="1"/>
-      <c r="H19" s="85"/>
+      <c r="H19" s="84"/>
       <c r="I19" s="4"/>
       <c r="J19" s="22"/>
       <c r="K19" s="49"/>
@@ -8423,7 +8607,7 @@
       <c r="E20" s="5"/>
       <c r="F20" s="3"/>
       <c r="G20" s="1"/>
-      <c r="H20" s="85"/>
+      <c r="H20" s="84"/>
       <c r="I20" s="4"/>
       <c r="J20" s="22"/>
       <c r="K20" s="49"/>
@@ -8443,7 +8627,7 @@
       <c r="E21" s="5"/>
       <c r="F21" s="3"/>
       <c r="G21" s="1"/>
-      <c r="H21" s="85"/>
+      <c r="H21" s="84"/>
       <c r="I21" s="4"/>
       <c r="J21" s="22"/>
       <c r="K21" s="49"/>
@@ -8463,7 +8647,7 @@
       <c r="E22" s="5"/>
       <c r="F22" s="3"/>
       <c r="G22" s="1"/>
-      <c r="H22" s="85"/>
+      <c r="H22" s="84"/>
       <c r="I22" s="4"/>
       <c r="J22" s="22"/>
       <c r="K22" s="49"/>
@@ -8483,7 +8667,7 @@
       <c r="E23" s="5"/>
       <c r="F23" s="3"/>
       <c r="G23" s="1"/>
-      <c r="H23" s="85"/>
+      <c r="H23" s="84"/>
       <c r="I23" s="4"/>
       <c r="J23" s="22"/>
       <c r="K23" s="49"/>
@@ -8503,7 +8687,7 @@
       <c r="E24" s="5"/>
       <c r="F24" s="3"/>
       <c r="G24" s="1"/>
-      <c r="H24" s="85"/>
+      <c r="H24" s="84"/>
       <c r="I24" s="4"/>
       <c r="J24" s="22"/>
       <c r="K24" s="49"/>
@@ -8523,7 +8707,7 @@
       <c r="E25" s="5"/>
       <c r="F25" s="3"/>
       <c r="G25" s="1"/>
-      <c r="H25" s="85"/>
+      <c r="H25" s="84"/>
       <c r="I25" s="4"/>
       <c r="J25" s="22"/>
       <c r="K25" s="49"/>
@@ -8543,7 +8727,7 @@
       <c r="E26" s="5"/>
       <c r="F26" s="3"/>
       <c r="G26" s="1"/>
-      <c r="H26" s="85"/>
+      <c r="H26" s="84"/>
       <c r="I26" s="4"/>
       <c r="J26" s="22"/>
       <c r="K26" s="49"/>
@@ -8563,7 +8747,7 @@
       <c r="E27" s="5"/>
       <c r="F27" s="3"/>
       <c r="G27" s="1"/>
-      <c r="H27" s="85"/>
+      <c r="H27" s="84"/>
       <c r="I27" s="4"/>
       <c r="J27" s="22"/>
       <c r="K27" s="49"/>
@@ -8583,7 +8767,7 @@
       <c r="E28" s="5"/>
       <c r="F28" s="3"/>
       <c r="G28" s="1"/>
-      <c r="H28" s="85"/>
+      <c r="H28" s="84"/>
       <c r="I28" s="4"/>
       <c r="J28" s="22"/>
       <c r="K28" s="49"/>
@@ -8603,7 +8787,7 @@
       <c r="E29" s="5"/>
       <c r="F29" s="3"/>
       <c r="G29" s="1"/>
-      <c r="H29" s="85"/>
+      <c r="H29" s="84"/>
       <c r="I29" s="4"/>
       <c r="J29" s="22"/>
       <c r="K29" s="49"/>
@@ -8623,7 +8807,7 @@
       <c r="E30" s="41"/>
       <c r="F30" s="42"/>
       <c r="G30" s="43"/>
-      <c r="H30" s="86"/>
+      <c r="H30" s="85"/>
       <c r="I30" s="44"/>
       <c r="J30" s="45"/>
       <c r="K30" s="50"/>
@@ -8652,10 +8836,10 @@
     <mergeCell ref="S9:T9"/>
   </mergeCells>
   <conditionalFormatting sqref="O11:O30">
-    <cfRule type="containsText" dxfId="4" priority="1" operator="containsText" text="Profitable">
+    <cfRule type="containsText" dxfId="1" priority="1" operator="containsText" text="Profitable">
       <formula>NOT(ISERROR(SEARCH("Profitable",O11)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="3" priority="6" operator="containsText" text="Losing">
+    <cfRule type="containsText" dxfId="0" priority="6" operator="containsText" text="Losing">
       <formula>NOT(ISERROR(SEARCH("Losing",O11)))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -8724,7 +8908,7 @@
   <dimension ref="D8:S41"/>
   <sheetViews>
     <sheetView showGridLines="0" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="N25" sqref="N25"/>
+      <selection activeCell="T30" sqref="T30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8743,22 +8927,22 @@
   <sheetData>
     <row r="8" spans="4:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="9" spans="4:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="J9" s="97" t="s">
+      <c r="J9" s="99" t="s">
         <v>19</v>
       </c>
-      <c r="K9" s="98"/>
-      <c r="L9" s="99" t="s">
+      <c r="K9" s="100"/>
+      <c r="L9" s="101" t="s">
         <v>20</v>
       </c>
-      <c r="M9" s="100"/>
-      <c r="N9" s="101" t="s">
+      <c r="M9" s="102"/>
+      <c r="N9" s="103" t="s">
         <v>21</v>
       </c>
-      <c r="O9" s="102"/>
-      <c r="P9" s="103" t="s">
+      <c r="O9" s="104"/>
+      <c r="P9" s="105" t="s">
         <v>22</v>
       </c>
-      <c r="Q9" s="104"/>
+      <c r="Q9" s="106"/>
     </row>
     <row r="10" spans="4:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D10" s="12" t="s">
@@ -8803,7 +8987,7 @@
       <c r="Q10" s="71" t="s">
         <v>24</v>
       </c>
-      <c r="R10" s="78" t="s">
+      <c r="R10" s="77" t="s">
         <v>29</v>
       </c>
       <c r="S10" s="60" t="s">
@@ -8811,22 +8995,54 @@
       </c>
     </row>
     <row r="11" spans="4:19" x14ac:dyDescent="0.25">
-      <c r="D11" s="58"/>
-      <c r="E11" s="58"/>
-      <c r="F11" s="59"/>
-      <c r="G11" s="59"/>
-      <c r="H11" s="59"/>
-      <c r="I11" s="79"/>
-      <c r="J11" s="63"/>
-      <c r="K11" s="64"/>
-      <c r="L11" s="67"/>
-      <c r="M11" s="68"/>
-      <c r="N11" s="72"/>
-      <c r="O11" s="73"/>
-      <c r="P11" s="67"/>
-      <c r="Q11" s="64"/>
-      <c r="R11" s="83"/>
-      <c r="S11" s="80"/>
+      <c r="D11" s="58" t="s">
+        <v>53</v>
+      </c>
+      <c r="E11" s="58" t="s">
+        <v>46</v>
+      </c>
+      <c r="F11" s="59">
+        <v>17.3</v>
+      </c>
+      <c r="G11" s="59">
+        <v>1000</v>
+      </c>
+      <c r="H11" s="59">
+        <v>1000</v>
+      </c>
+      <c r="I11" s="78">
+        <v>1.118055477912814</v>
+      </c>
+      <c r="J11" s="63">
+        <v>-899.13</v>
+      </c>
+      <c r="K11" s="64">
+        <v>-1</v>
+      </c>
+      <c r="L11" s="67">
+        <v>899.13</v>
+      </c>
+      <c r="M11" s="68">
+        <v>1</v>
+      </c>
+      <c r="N11" s="67">
+        <v>0.10706278671372893</v>
+      </c>
+      <c r="O11" s="72">
+        <v>1.1907375653546087E-4</v>
+      </c>
+      <c r="P11" s="67">
+        <v>10</v>
+      </c>
+      <c r="Q11" s="64">
+        <v>1.1180554779128141E-2</v>
+      </c>
+      <c r="R11" s="82" t="s">
+        <v>54</v>
+      </c>
+      <c r="S11" s="79" t="s">
+        <v>55</v>
+      </c>
     </row>
     <row r="12" spans="4:19" x14ac:dyDescent="0.25">
       <c r="D12" s="7"/>
@@ -8839,12 +9055,12 @@
       <c r="K12" s="9"/>
       <c r="L12" s="49"/>
       <c r="M12" s="69"/>
-      <c r="N12" s="74"/>
-      <c r="O12" s="75"/>
+      <c r="N12" s="73"/>
+      <c r="O12" s="74"/>
       <c r="P12" s="49"/>
       <c r="Q12" s="9"/>
-      <c r="R12" s="82"/>
-      <c r="S12" s="81"/>
+      <c r="R12" s="81"/>
+      <c r="S12" s="80"/>
     </row>
     <row r="13" spans="4:19" x14ac:dyDescent="0.25">
       <c r="D13" s="7"/>
@@ -8857,12 +9073,12 @@
       <c r="K13" s="9"/>
       <c r="L13" s="49"/>
       <c r="M13" s="69"/>
-      <c r="N13" s="74"/>
-      <c r="O13" s="75"/>
+      <c r="N13" s="73"/>
+      <c r="O13" s="74"/>
       <c r="P13" s="49"/>
       <c r="Q13" s="9"/>
-      <c r="R13" s="82"/>
-      <c r="S13" s="81"/>
+      <c r="R13" s="81"/>
+      <c r="S13" s="80"/>
     </row>
     <row r="14" spans="4:19" x14ac:dyDescent="0.25">
       <c r="D14" s="7"/>
@@ -8875,12 +9091,12 @@
       <c r="K14" s="9"/>
       <c r="L14" s="49"/>
       <c r="M14" s="69"/>
-      <c r="N14" s="74"/>
-      <c r="O14" s="75"/>
+      <c r="N14" s="73"/>
+      <c r="O14" s="74"/>
       <c r="P14" s="49"/>
       <c r="Q14" s="9"/>
-      <c r="R14" s="82"/>
-      <c r="S14" s="81"/>
+      <c r="R14" s="81"/>
+      <c r="S14" s="80"/>
     </row>
     <row r="15" spans="4:19" x14ac:dyDescent="0.25">
       <c r="D15" s="7"/>
@@ -8893,12 +9109,12 @@
       <c r="K15" s="9"/>
       <c r="L15" s="49"/>
       <c r="M15" s="69"/>
-      <c r="N15" s="74"/>
-      <c r="O15" s="75"/>
+      <c r="N15" s="73"/>
+      <c r="O15" s="74"/>
       <c r="P15" s="49"/>
       <c r="Q15" s="9"/>
-      <c r="R15" s="82"/>
-      <c r="S15" s="81"/>
+      <c r="R15" s="81"/>
+      <c r="S15" s="80"/>
     </row>
     <row r="16" spans="4:19" x14ac:dyDescent="0.25">
       <c r="D16" s="7"/>
@@ -8911,12 +9127,12 @@
       <c r="K16" s="9"/>
       <c r="L16" s="49"/>
       <c r="M16" s="69"/>
-      <c r="N16" s="74"/>
-      <c r="O16" s="75"/>
+      <c r="N16" s="73"/>
+      <c r="O16" s="74"/>
       <c r="P16" s="49"/>
       <c r="Q16" s="9"/>
-      <c r="R16" s="82"/>
-      <c r="S16" s="81"/>
+      <c r="R16" s="81"/>
+      <c r="S16" s="80"/>
     </row>
     <row r="17" spans="4:19" x14ac:dyDescent="0.25">
       <c r="D17" s="7"/>
@@ -8929,12 +9145,12 @@
       <c r="K17" s="9"/>
       <c r="L17" s="49"/>
       <c r="M17" s="69"/>
-      <c r="N17" s="74"/>
-      <c r="O17" s="75"/>
+      <c r="N17" s="73"/>
+      <c r="O17" s="74"/>
       <c r="P17" s="49"/>
       <c r="Q17" s="9"/>
-      <c r="R17" s="82"/>
-      <c r="S17" s="81"/>
+      <c r="R17" s="81"/>
+      <c r="S17" s="80"/>
     </row>
     <row r="18" spans="4:19" x14ac:dyDescent="0.25">
       <c r="D18" s="7"/>
@@ -8947,12 +9163,12 @@
       <c r="K18" s="9"/>
       <c r="L18" s="49"/>
       <c r="M18" s="69"/>
-      <c r="N18" s="74"/>
-      <c r="O18" s="75"/>
+      <c r="N18" s="73"/>
+      <c r="O18" s="74"/>
       <c r="P18" s="49"/>
       <c r="Q18" s="9"/>
-      <c r="R18" s="82"/>
-      <c r="S18" s="81"/>
+      <c r="R18" s="81"/>
+      <c r="S18" s="80"/>
     </row>
     <row r="19" spans="4:19" x14ac:dyDescent="0.25">
       <c r="D19" s="7"/>
@@ -8965,12 +9181,12 @@
       <c r="K19" s="9"/>
       <c r="L19" s="49"/>
       <c r="M19" s="69"/>
-      <c r="N19" s="74"/>
-      <c r="O19" s="75"/>
+      <c r="N19" s="73"/>
+      <c r="O19" s="74"/>
       <c r="P19" s="49"/>
       <c r="Q19" s="9"/>
-      <c r="R19" s="82"/>
-      <c r="S19" s="81"/>
+      <c r="R19" s="81"/>
+      <c r="S19" s="80"/>
     </row>
     <row r="20" spans="4:19" x14ac:dyDescent="0.25">
       <c r="D20" s="7"/>
@@ -8983,12 +9199,12 @@
       <c r="K20" s="9"/>
       <c r="L20" s="49"/>
       <c r="M20" s="69"/>
-      <c r="N20" s="74"/>
-      <c r="O20" s="75"/>
+      <c r="N20" s="73"/>
+      <c r="O20" s="74"/>
       <c r="P20" s="49"/>
       <c r="Q20" s="9"/>
-      <c r="R20" s="82"/>
-      <c r="S20" s="81"/>
+      <c r="R20" s="81"/>
+      <c r="S20" s="80"/>
     </row>
     <row r="21" spans="4:19" x14ac:dyDescent="0.25">
       <c r="D21" s="7"/>
@@ -9001,12 +9217,12 @@
       <c r="K21" s="9"/>
       <c r="L21" s="49"/>
       <c r="M21" s="69"/>
-      <c r="N21" s="74"/>
-      <c r="O21" s="75"/>
+      <c r="N21" s="73"/>
+      <c r="O21" s="74"/>
       <c r="P21" s="49"/>
       <c r="Q21" s="9"/>
-      <c r="R21" s="82"/>
-      <c r="S21" s="81"/>
+      <c r="R21" s="81"/>
+      <c r="S21" s="80"/>
     </row>
     <row r="22" spans="4:19" x14ac:dyDescent="0.25">
       <c r="D22" s="7"/>
@@ -9019,12 +9235,12 @@
       <c r="K22" s="9"/>
       <c r="L22" s="49"/>
       <c r="M22" s="69"/>
-      <c r="N22" s="74"/>
-      <c r="O22" s="75"/>
+      <c r="N22" s="73"/>
+      <c r="O22" s="74"/>
       <c r="P22" s="49"/>
       <c r="Q22" s="9"/>
-      <c r="R22" s="82"/>
-      <c r="S22" s="81"/>
+      <c r="R22" s="81"/>
+      <c r="S22" s="80"/>
     </row>
     <row r="23" spans="4:19" x14ac:dyDescent="0.25">
       <c r="D23" s="7"/>
@@ -9037,12 +9253,12 @@
       <c r="K23" s="9"/>
       <c r="L23" s="49"/>
       <c r="M23" s="69"/>
-      <c r="N23" s="74"/>
-      <c r="O23" s="75"/>
+      <c r="N23" s="73"/>
+      <c r="O23" s="74"/>
       <c r="P23" s="49"/>
       <c r="Q23" s="9"/>
-      <c r="R23" s="82"/>
-      <c r="S23" s="81"/>
+      <c r="R23" s="81"/>
+      <c r="S23" s="80"/>
     </row>
     <row r="24" spans="4:19" x14ac:dyDescent="0.25">
       <c r="D24" s="7"/>
@@ -9055,12 +9271,12 @@
       <c r="K24" s="9"/>
       <c r="L24" s="49"/>
       <c r="M24" s="69"/>
-      <c r="N24" s="74"/>
-      <c r="O24" s="75"/>
+      <c r="N24" s="73"/>
+      <c r="O24" s="74"/>
       <c r="P24" s="49"/>
       <c r="Q24" s="9"/>
-      <c r="R24" s="82"/>
-      <c r="S24" s="81"/>
+      <c r="R24" s="81"/>
+      <c r="S24" s="80"/>
     </row>
     <row r="25" spans="4:19" x14ac:dyDescent="0.25">
       <c r="D25" s="7"/>
@@ -9073,12 +9289,12 @@
       <c r="K25" s="9"/>
       <c r="L25" s="49"/>
       <c r="M25" s="69"/>
-      <c r="N25" s="74"/>
-      <c r="O25" s="75"/>
+      <c r="N25" s="73"/>
+      <c r="O25" s="74"/>
       <c r="P25" s="49"/>
       <c r="Q25" s="9"/>
-      <c r="R25" s="82"/>
-      <c r="S25" s="81"/>
+      <c r="R25" s="81"/>
+      <c r="S25" s="80"/>
     </row>
     <row r="26" spans="4:19" x14ac:dyDescent="0.25">
       <c r="D26" s="7"/>
@@ -9091,12 +9307,12 @@
       <c r="K26" s="9"/>
       <c r="L26" s="49"/>
       <c r="M26" s="69"/>
-      <c r="N26" s="74"/>
-      <c r="O26" s="75"/>
+      <c r="N26" s="73"/>
+      <c r="O26" s="74"/>
       <c r="P26" s="49"/>
       <c r="Q26" s="9"/>
-      <c r="R26" s="82"/>
-      <c r="S26" s="81"/>
+      <c r="R26" s="81"/>
+      <c r="S26" s="80"/>
     </row>
     <row r="27" spans="4:19" x14ac:dyDescent="0.25">
       <c r="D27" s="7"/>
@@ -9109,12 +9325,12 @@
       <c r="K27" s="9"/>
       <c r="L27" s="49"/>
       <c r="M27" s="69"/>
-      <c r="N27" s="74"/>
-      <c r="O27" s="75"/>
+      <c r="N27" s="73"/>
+      <c r="O27" s="74"/>
       <c r="P27" s="49"/>
       <c r="Q27" s="9"/>
-      <c r="R27" s="82"/>
-      <c r="S27" s="81"/>
+      <c r="R27" s="81"/>
+      <c r="S27" s="80"/>
     </row>
     <row r="28" spans="4:19" x14ac:dyDescent="0.25">
       <c r="D28" s="7"/>
@@ -9127,12 +9343,12 @@
       <c r="K28" s="9"/>
       <c r="L28" s="49"/>
       <c r="M28" s="69"/>
-      <c r="N28" s="74"/>
-      <c r="O28" s="75"/>
+      <c r="N28" s="73"/>
+      <c r="O28" s="74"/>
       <c r="P28" s="49"/>
       <c r="Q28" s="9"/>
-      <c r="R28" s="82"/>
-      <c r="S28" s="81"/>
+      <c r="R28" s="81"/>
+      <c r="S28" s="80"/>
     </row>
     <row r="29" spans="4:19" x14ac:dyDescent="0.25">
       <c r="D29" s="7"/>
@@ -9145,12 +9361,12 @@
       <c r="K29" s="9"/>
       <c r="L29" s="49"/>
       <c r="M29" s="69"/>
-      <c r="N29" s="74"/>
-      <c r="O29" s="75"/>
+      <c r="N29" s="73"/>
+      <c r="O29" s="74"/>
       <c r="P29" s="49"/>
       <c r="Q29" s="9"/>
-      <c r="R29" s="82"/>
-      <c r="S29" s="81"/>
+      <c r="R29" s="81"/>
+      <c r="S29" s="80"/>
     </row>
     <row r="30" spans="4:19" x14ac:dyDescent="0.25">
       <c r="D30" s="7"/>
@@ -9163,12 +9379,12 @@
       <c r="K30" s="9"/>
       <c r="L30" s="49"/>
       <c r="M30" s="69"/>
-      <c r="N30" s="74"/>
-      <c r="O30" s="75"/>
+      <c r="N30" s="73"/>
+      <c r="O30" s="74"/>
       <c r="P30" s="49"/>
       <c r="Q30" s="9"/>
-      <c r="R30" s="82"/>
-      <c r="S30" s="81"/>
+      <c r="R30" s="81"/>
+      <c r="S30" s="80"/>
     </row>
     <row r="31" spans="4:19" x14ac:dyDescent="0.25">
       <c r="D31" s="7"/>
@@ -9181,12 +9397,12 @@
       <c r="K31" s="9"/>
       <c r="L31" s="49"/>
       <c r="M31" s="69"/>
-      <c r="N31" s="74"/>
-      <c r="O31" s="75"/>
+      <c r="N31" s="73"/>
+      <c r="O31" s="74"/>
       <c r="P31" s="49"/>
       <c r="Q31" s="9"/>
-      <c r="R31" s="82"/>
-      <c r="S31" s="81"/>
+      <c r="R31" s="81"/>
+      <c r="S31" s="80"/>
     </row>
     <row r="32" spans="4:19" x14ac:dyDescent="0.25">
       <c r="D32" s="7"/>
@@ -9199,12 +9415,12 @@
       <c r="K32" s="9"/>
       <c r="L32" s="49"/>
       <c r="M32" s="69"/>
-      <c r="N32" s="74"/>
-      <c r="O32" s="75"/>
+      <c r="N32" s="73"/>
+      <c r="O32" s="74"/>
       <c r="P32" s="49"/>
       <c r="Q32" s="9"/>
-      <c r="R32" s="82"/>
-      <c r="S32" s="81"/>
+      <c r="R32" s="81"/>
+      <c r="S32" s="80"/>
     </row>
     <row r="33" spans="4:19" x14ac:dyDescent="0.25">
       <c r="D33" s="7"/>
@@ -9217,12 +9433,12 @@
       <c r="K33" s="9"/>
       <c r="L33" s="49"/>
       <c r="M33" s="69"/>
-      <c r="N33" s="74"/>
-      <c r="O33" s="75"/>
+      <c r="N33" s="73"/>
+      <c r="O33" s="74"/>
       <c r="P33" s="49"/>
       <c r="Q33" s="9"/>
-      <c r="R33" s="82"/>
-      <c r="S33" s="81"/>
+      <c r="R33" s="81"/>
+      <c r="S33" s="80"/>
     </row>
     <row r="34" spans="4:19" x14ac:dyDescent="0.25">
       <c r="D34" s="7"/>
@@ -9235,12 +9451,12 @@
       <c r="K34" s="9"/>
       <c r="L34" s="49"/>
       <c r="M34" s="69"/>
-      <c r="N34" s="74"/>
-      <c r="O34" s="75"/>
+      <c r="N34" s="73"/>
+      <c r="O34" s="74"/>
       <c r="P34" s="49"/>
       <c r="Q34" s="9"/>
-      <c r="R34" s="82"/>
-      <c r="S34" s="81"/>
+      <c r="R34" s="81"/>
+      <c r="S34" s="80"/>
     </row>
     <row r="35" spans="4:19" x14ac:dyDescent="0.25">
       <c r="D35" s="7"/>
@@ -9253,12 +9469,12 @@
       <c r="K35" s="9"/>
       <c r="L35" s="49"/>
       <c r="M35" s="69"/>
-      <c r="N35" s="74"/>
-      <c r="O35" s="75"/>
+      <c r="N35" s="73"/>
+      <c r="O35" s="74"/>
       <c r="P35" s="49"/>
       <c r="Q35" s="9"/>
-      <c r="R35" s="82"/>
-      <c r="S35" s="81"/>
+      <c r="R35" s="81"/>
+      <c r="S35" s="80"/>
     </row>
     <row r="36" spans="4:19" x14ac:dyDescent="0.25">
       <c r="D36" s="7"/>
@@ -9271,12 +9487,12 @@
       <c r="K36" s="9"/>
       <c r="L36" s="49"/>
       <c r="M36" s="69"/>
-      <c r="N36" s="74"/>
-      <c r="O36" s="75"/>
+      <c r="N36" s="73"/>
+      <c r="O36" s="74"/>
       <c r="P36" s="49"/>
       <c r="Q36" s="9"/>
-      <c r="R36" s="82"/>
-      <c r="S36" s="81"/>
+      <c r="R36" s="81"/>
+      <c r="S36" s="80"/>
     </row>
     <row r="37" spans="4:19" x14ac:dyDescent="0.25">
       <c r="D37" s="7"/>
@@ -9289,12 +9505,12 @@
       <c r="K37" s="9"/>
       <c r="L37" s="49"/>
       <c r="M37" s="69"/>
-      <c r="N37" s="74"/>
-      <c r="O37" s="75"/>
+      <c r="N37" s="73"/>
+      <c r="O37" s="74"/>
       <c r="P37" s="49"/>
       <c r="Q37" s="9"/>
-      <c r="R37" s="82"/>
-      <c r="S37" s="81"/>
+      <c r="R37" s="81"/>
+      <c r="S37" s="80"/>
     </row>
     <row r="38" spans="4:19" x14ac:dyDescent="0.25">
       <c r="D38" s="7"/>
@@ -9307,12 +9523,12 @@
       <c r="K38" s="9"/>
       <c r="L38" s="49"/>
       <c r="M38" s="69"/>
-      <c r="N38" s="74"/>
-      <c r="O38" s="75"/>
+      <c r="N38" s="73"/>
+      <c r="O38" s="74"/>
       <c r="P38" s="49"/>
       <c r="Q38" s="9"/>
-      <c r="R38" s="82"/>
-      <c r="S38" s="81"/>
+      <c r="R38" s="81"/>
+      <c r="S38" s="80"/>
     </row>
     <row r="39" spans="4:19" x14ac:dyDescent="0.25">
       <c r="D39" s="7"/>
@@ -9325,12 +9541,12 @@
       <c r="K39" s="9"/>
       <c r="L39" s="49"/>
       <c r="M39" s="69"/>
-      <c r="N39" s="74"/>
-      <c r="O39" s="75"/>
+      <c r="N39" s="73"/>
+      <c r="O39" s="74"/>
       <c r="P39" s="49"/>
       <c r="Q39" s="9"/>
-      <c r="R39" s="82"/>
-      <c r="S39" s="81"/>
+      <c r="R39" s="81"/>
+      <c r="S39" s="80"/>
     </row>
     <row r="40" spans="4:19" x14ac:dyDescent="0.25">
       <c r="D40" s="7"/>
@@ -9343,12 +9559,12 @@
       <c r="K40" s="9"/>
       <c r="L40" s="49"/>
       <c r="M40" s="69"/>
-      <c r="N40" s="74"/>
-      <c r="O40" s="75"/>
+      <c r="N40" s="73"/>
+      <c r="O40" s="74"/>
       <c r="P40" s="49"/>
       <c r="Q40" s="9"/>
-      <c r="R40" s="82"/>
-      <c r="S40" s="81"/>
+      <c r="R40" s="81"/>
+      <c r="S40" s="80"/>
     </row>
     <row r="41" spans="4:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D41" s="7"/>
@@ -9361,12 +9577,12 @@
       <c r="K41" s="11"/>
       <c r="L41" s="50"/>
       <c r="M41" s="70"/>
-      <c r="N41" s="76"/>
-      <c r="O41" s="77"/>
+      <c r="N41" s="75"/>
+      <c r="O41" s="76"/>
       <c r="P41" s="50"/>
       <c r="Q41" s="11"/>
-      <c r="R41" s="82"/>
-      <c r="S41" s="81"/>
+      <c r="R41" s="81"/>
+      <c r="S41" s="80"/>
     </row>
   </sheetData>
   <mergeCells count="4">
